--- a/biology/Botanique/Porophyllum/Porophyllum.xlsx
+++ b/biology/Botanique/Porophyllum/Porophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Porophyllum est un genre de plantes à fleurs de la famille des Asteraceae (ou Composées) regroupant 92 espèces.
 Ce sont des arbustes originaires d'Amérique. Leurs feuilles possèdent de grandes glandes qui dégagent des huiles aromatiques. De nombreuses espèces de ce genre sont utilisées comme assaisonnement en cuisine.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Porophyllum gracile Benth.
